--- a/ram.xlsx
+++ b/ram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,19 @@
           <t>DESCRIPTION</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>extracted_ip</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -516,14 +529,23 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-08-19 00:06:37</t>
+          <t>2024-08-19 00:00:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>connect to 217.8.117.10</t>
-        </is>
-      </c>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -569,6 +591,15 @@
           <t>connect to 217.8.117.10</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -606,14 +637,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2024-08-19 00:06:37</t>
+          <t>2024-08-19 00:00:22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>connect to 217.8.117.10</t>
-        </is>
-      </c>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -659,96 +699,15 @@
           <t>connect to 217.8.117.10</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>08-BF-B8-35-9F-E8</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>172.16.10.88</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Chua dinh danh</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Gray_domain</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2024-08-19 00:06:37</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>connect to 217.8.117.10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>00-0C-29-68-3D-D3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>86.79.107.250</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Chua dinh danh</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Gray_domain</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2024-08-19 00:08:03</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>connect to 217.8.117.10</t>
-        </is>
-      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ram.xlsx
+++ b/ram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,114 +601,6 @@
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>08-BF-B8-35-9F-E8</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>172.16.10.88</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Chua dinh danh</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gray_domain</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2024-08-19 00:00:22</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>connect to jjrvaka.com</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>jjrvaka.com</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>00-0C-29-68-3D-D3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>86.79.107.250</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Chua dinh danh</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gray_domain</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2024-08-19 00:08:03</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>connect to 217.8.117.10</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>217.8.117.10</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ram.xlsx
+++ b/ram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +601,60 @@
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ram.xlsx
+++ b/ram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,1626 @@
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08-BF-B8-35-9F-E8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>172.16.10.88</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:22</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>00-0C-29-68-3D-D3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>86.79.107.250</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:08:03</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>connect to 217.8.117.10</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08-BF-B8-35-9F-E8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>172.16.10.88</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:22</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>00-0C-29-68-3D-D3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>86.79.107.250</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:08:03</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>connect to 217.8.117.10</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08-BF-B8-35-9F-E8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>172.16.10.88</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:22</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>00-0C-29-68-3D-D3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>86.79.107.250</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:08:03</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>connect to 217.8.117.10</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-BF-B8-35-9F-E8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>172.16.10.88</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:22</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>00-0C-29-68-3D-D3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>86.79.107.250</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:08:03</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>connect to 217.8.117.10</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>08-BF-B8-35-9F-E8</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>172.16.10.88</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:22</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>00-0C-29-68-3D-D3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>86.79.107.250</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:08:03</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>connect to 217.8.117.10</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08-BF-B8-35-9F-E8</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>172.16.10.88</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:22</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>00-0C-29-68-3D-D3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>86.79.107.250</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:08:03</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>connect to 217.8.117.10</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-BF-B8-35-9F-E8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>172.16.10.88</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:22</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>00-0C-29-68-3D-D3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>86.79.107.250</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:08:03</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>connect to 217.8.117.10</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08-BF-B8-35-9F-E8</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>172.16.10.88</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:22</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>00-0C-29-68-3D-D3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>86.79.107.250</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:08:03</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>connect to 217.8.117.10</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08-BF-B8-35-9F-E8</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>172.16.10.88</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:22</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>00-0C-29-68-3D-D3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>86.79.107.250</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:08:03</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>connect to 217.8.117.10</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08-BF-B8-35-9F-E8</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>172.16.10.88</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BCHQS tỉnh Quảng Nam  - Quân khu 5</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:00:22</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>00-0C-29-68-3D-D3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>86.79.107.250</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>dTT-RĐ-AS-Lữ đoàn 954-QCHQ</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:08:03</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>connect to 217.8.117.10</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>217.8.117.10</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>30-D0-42-F4-D2-ED</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>172.16.40.2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Chua dinh danh</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Phòng Tham Mưu-Trung tâm 386-Bộ Tư lệnh 86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Gray_domain</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2024-08-19 00:09:23</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>connect to jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>jjrvaka.com</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
